--- a/7.Viabilidad_dependencias.xlsx
+++ b/7.Viabilidad_dependencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos D\Gobernación\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6FC2C9-3F03-4150-97E1-F42391FFFCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB604E6-CE0A-49EF-AE5F-0A727C97BE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIABILIDAD PROYECTO" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,12 +301,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -654,11 +648,215 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -699,33 +897,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,183 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1194,8 +1188,8 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1242,169 +1236,169 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="101"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="71"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="71"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
     </row>
     <row r="6" spans="1:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="92"/>
     </row>
     <row r="7" spans="1:19" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="63"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="103"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="103"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="39">
         <v>2024</v>
       </c>
@@ -1430,395 +1424,395 @@
       </c>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
-      <c r="S9" s="78"/>
+      <c r="S9" s="64"/>
     </row>
     <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="38">
+      <c r="C10" s="38"/>
+      <c r="D10" s="34">
         <f>IFERROR(SUM(D11:F19),"")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34">
         <f t="shared" ref="G10" si="0">IFERROR(SUM(G11:I19),"")</f>
         <v>0</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34">
         <f t="shared" ref="J10" si="1">IFERROR(SUM(J11:L19),"")</f>
         <v>0</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34">
         <f t="shared" ref="M10" si="2">IFERROR(SUM(M11:O19),"")</f>
         <v>0</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="45">
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="32">
         <f>IFERROR(SUM(D10:O10),"")</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="45">
+      <c r="C11" s="67"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="32">
         <f>IFERROR(SUM(D11:O11),"")</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="45">
+      <c r="C12" s="67"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="32">
         <f>IFERROR(SUM(D12:O12),"")</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="45">
+      <c r="C13" s="67"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="32">
         <f t="shared" ref="P13:P22" si="3">IFERROR(SUM(D13:O13),"")</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="45">
+      <c r="C14" s="67"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="45">
+      <c r="C15" s="67"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
     </row>
     <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="45">
+      <c r="C16" s="67"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
     </row>
     <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="45">
+      <c r="C17" s="67"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="45">
+      <c r="C18" s="67"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
     </row>
     <row r="19" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="45">
+      <c r="C19" s="67"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="45">
+      <c r="C20" s="38"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="45">
+      <c r="C21" s="38"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="32">
         <f t="shared" ref="P21" si="4">IFERROR(SUM(D21:O21),"")</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="45">
+      <c r="C22" s="38"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="60">
+      <c r="C23" s="86"/>
+      <c r="D23" s="56">
         <f>IFERROR(SUM(D11:F22),"")</f>
         <v>0</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56">
         <f t="shared" ref="G23" si="5">IFERROR(SUM(G11:I22),"")</f>
         <v>0</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60">
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56">
         <f t="shared" ref="J23" si="6">IFERROR(SUM(J11:L22),"")</f>
         <v>0</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60">
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56">
         <f>IFERROR(SUM(M11:O22),"")</f>
         <v>0</v>
       </c>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60">
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56">
         <f>IFERROR(SUM(P11:S22),"")</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="91"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
@@ -1841,55 +1835,55 @@
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
     </row>
     <row r="26" spans="1:24" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="35" t="s">
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="35" t="s">
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="35" t="s">
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="75"/>
       <c r="S26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1898,83 +1892,83 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="73"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="50"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="73"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="50"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="73"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="50"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="73"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="50"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -1998,169 +1992,169 @@
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
       <c r="S32" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
       <c r="S33" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
       <c r="S34" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
       <c r="S35" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
       <c r="S36" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
       <c r="S37" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
       <c r="S38" s="19" t="s">
         <v>0</v>
       </c>
@@ -2185,96 +2179,96 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
     </row>
     <row r="41" spans="2:19" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30" t="s">
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="32"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="100"/>
     </row>
     <row r="42" spans="2:19" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="96" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="98"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="28"/>
     </row>
     <row r="43" spans="2:19" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49" t="s">
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="50"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="79"/>
     </row>
     <row r="44" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
@@ -2297,26 +2291,26 @@
       <c r="S44" s="14"/>
     </row>
     <row r="45" spans="2:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
     </row>
     <row r="46" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14"/>
@@ -2339,95 +2333,220 @@
       <c r="S46" s="15"/>
     </row>
     <row r="47" spans="2:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="85"/>
-      <c r="S47" s="86"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="46"/>
     </row>
     <row r="48" spans="2:19" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="55"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="82"/>
     </row>
     <row r="49" spans="2:19" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
     </row>
     <row r="50" spans="2:19" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="83"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="149">
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="J41:S41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B8:S8"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:S43"/>
+    <mergeCell ref="B45:S45"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E48:S48"/>
+    <mergeCell ref="E49:S49"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B40:S40"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="G3:S3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:S7"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="E50:S50"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B47:S47"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="P23:S23"/>
     <mergeCell ref="G4:S4"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B42:I42"/>
@@ -2452,131 +2571,6 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E50:S50"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B47:S47"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="G3:S3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:S7"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:S43"/>
-    <mergeCell ref="B45:S45"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E48:S48"/>
-    <mergeCell ref="E49:S49"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B40:S40"/>
-    <mergeCell ref="G5:S5"/>
-    <mergeCell ref="G6:S6"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="J41:S41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B8:S8"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:S4 S33:S36" xr:uid="{00000000-0002-0000-0000-000000000000}">
